--- a/1_semester/Support_and_testing_of_software_modules/Lab2/Модуль 1/import/user_import.xlsx
+++ b/1_semester/Support_and_testing_of_software_modules/Lab2/Модуль 1/import/user_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="456" windowWidth="13920" windowHeight="8604"/>
+    <workbookView xWindow="3060" yWindow="450" windowWidth="13920" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="2" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,15 +524,15 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -554,189 +554,189 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:E11">
-    <sortCondition ref="C1"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D11" r:id="rId4"/>
-    <hyperlink ref="D2" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D4" r:id="rId7"/>
-    <hyperlink ref="D8" r:id="rId8"/>
-    <hyperlink ref="D3" r:id="rId9"/>
-    <hyperlink ref="D10" r:id="rId10"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
